--- a/Harlalka Family Tree.xlsx
+++ b/Harlalka Family Tree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
-  <si>
-    <t>X</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>I</t>
   </si>
@@ -77,29 +74,15 @@
     <t>Prem Sukh Bharech</t>
   </si>
   <si>
-    <t>Gouri Sankar Maskara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanti Devi </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Savitri Devi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hari Poddar </t>
   </si>
   <si>
     <t>Ram Poddar</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
+    <t xml:space="preserve"> Rama Devi</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -107,18 +90,109 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Adopted)</t>
+      <t xml:space="preserve"> Shyam Sunder Saraf</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Gajanand Jalan </t>
+  </si>
+  <si>
+    <t>Banarasi Devi</t>
+  </si>
+  <si>
+    <t>Mali Ram Jhunjhunwala</t>
+  </si>
+  <si>
+    <t>Ratana Devi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhe Shyam Saraf  </t>
+  </si>
+  <si>
+    <t>Sankuntala Devi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram Gopal Saraf  </t>
+  </si>
+  <si>
+    <t>Kashi Prashad Chowdhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama Devi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brota Pratap Mal Harlalka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budhar Mal Saraogi </t>
+  </si>
+  <si>
+    <t>Nand lal Jalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giniya Devi </t>
+  </si>
+  <si>
+    <t>Ganshyam Saraogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayatri Devi </t>
+  </si>
+  <si>
+    <t>Rajesh Kakrania</t>
+  </si>
+  <si>
+    <t>Ajay Kakrania</t>
+  </si>
+  <si>
+    <t>Arun Kakrania</t>
+  </si>
+  <si>
+    <t>Mahavir Saraf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saroj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushma </t>
+  </si>
+  <si>
+    <t>Baccha Ram Parasrampuria</t>
+  </si>
+  <si>
+    <t>Narayani Devi</t>
+  </si>
+  <si>
+    <t>Raj Kumari</t>
+  </si>
+  <si>
+    <t>Purshottam Harlalka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiv Bux Harlalka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arvind Harlalka </t>
+  </si>
+  <si>
+    <t>Alok Harlalka</t>
+  </si>
+  <si>
+    <t>Sumit Harlalka</t>
+  </si>
+  <si>
+    <t>Kishan Lal Kakrania</t>
+  </si>
+  <si>
+    <t>Sanjay Pansari</t>
+  </si>
+  <si>
+    <t>Hardei Devi  (First wife)</t>
+  </si>
+  <si>
+    <t>(Beshesar lal Poddar.  (Mahadei Devi -second wife)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -138,41 +212,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t>(Adopted)</t>
     </r>
   </si>
   <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rama Devi</t>
+    <t xml:space="preserve">Smt.   </t>
+  </si>
+  <si>
+    <t>(Durga Dutt Saraf (Maniya Devi - first wife)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmeswari Devi </t>
+  </si>
+  <si>
+    <t>Gouri Sankar Maskara -(Bagawati Devi -second wife)</t>
+  </si>
+  <si>
+    <t>Smt.</t>
+  </si>
+  <si>
+    <t>is 4th child not 2nd</t>
+  </si>
+  <si>
+    <t>3rd child</t>
+  </si>
+  <si>
+    <t>2nd child &amp; it is written twice</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Shyam Sunder Saraf</t>
-    </r>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Ms….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gajanand Jalan </t>
-  </si>
-  <si>
-    <t>Banarasi Devi</t>
-  </si>
-  <si>
-    <r>
-      <t>Parmeswari Devi (first wife)</t>
+      <t>Kamala D</t>
     </r>
     <r>
       <rPr>
@@ -182,122 +251,54 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">evi  </t>
     </r>
   </si>
   <si>
-    <t>Mali Ram Jhunjhunwala</t>
-  </si>
-  <si>
-    <t>Ratana Devi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radhe Shyam Saraf  </t>
-  </si>
-  <si>
-    <t>Sankuntala Devi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ram Gopal Saraf  </t>
-  </si>
-  <si>
-    <t>Kashi Prashad Chowdhary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama Devi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brota Pratap Mal Harlalka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budhar Mal Saraogi </t>
-  </si>
-  <si>
-    <t>Nand lal Jalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giniya Devi </t>
-  </si>
-  <si>
-    <t>Ganshyam Saraogi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gayatri Devi </t>
-  </si>
-  <si>
-    <t>Rajesh Kakrania</t>
-  </si>
-  <si>
-    <t>Ajay Kakrania</t>
-  </si>
-  <si>
-    <t>Arun Kakrania</t>
-  </si>
-  <si>
-    <t>Mahavir Saraf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saroj </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sushma </t>
-  </si>
-  <si>
-    <t>Baccha Ram Parasrampuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrs….    </t>
-  </si>
-  <si>
-    <t>Narayani Devi</t>
-  </si>
-  <si>
-    <t>Raj Kumari</t>
-  </si>
-  <si>
-    <t>Purshottam Harlalka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shiv Bux Harlalka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arvind Harlalka </t>
-  </si>
-  <si>
-    <t>Alok Harlalka</t>
-  </si>
-  <si>
-    <t>Sumit Harlalka</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>Bagawati Devi (second wife)</t>
-  </si>
-  <si>
-    <t>Kamala Devi  (second wife)</t>
-  </si>
-  <si>
-    <t>Kishan Lal Kakrania</t>
-  </si>
-  <si>
-    <t>Sanjay Pansari</t>
-  </si>
-  <si>
-    <t>Hardei Devi  (First wife)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Durga Dutt Saraf </t>
-  </si>
-  <si>
-    <t>Maniya Devi (first wife))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Beshesar lal Poddar. </t>
-  </si>
-  <si>
-    <t>Mahadei Devi  (second wife))</t>
+    <t>5th child   &amp; two box extra</t>
+  </si>
+  <si>
+    <r>
+      <t>Shanti Devi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (first wife) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Savitri Devi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Second wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">lots of empty space in top </t>
   </si>
 </sst>
 </file>
@@ -381,13 +382,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -422,8 +416,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +858,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -898,15 +905,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -915,12 +920,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -942,11 +944,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,17 +962,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="209">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1513,7 +1527,7 @@
   <dimension ref="B1:BB294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1530,9 +1544,9 @@
     <col min="10" max="10" width="2.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="44" style="1" customWidth="1"/>
     <col min="14" max="14" width="3.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="35.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="3" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="2.6640625" style="1" customWidth="1"/>
@@ -1562,7 +1576,7 @@
     <col min="42" max="42" width="3.83203125" customWidth="1"/>
     <col min="43" max="43" width="3.33203125" customWidth="1"/>
     <col min="44" max="44" width="12.1640625" customWidth="1"/>
-    <col min="45" max="45" width="24.83203125" customWidth="1"/>
+    <col min="45" max="45" width="43" customWidth="1"/>
     <col min="46" max="46" width="22.5" customWidth="1"/>
     <col min="47" max="47" width="2.33203125" customWidth="1"/>
     <col min="48" max="48" width="4" customWidth="1"/>
@@ -1575,8 +1589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:54" s="7" customFormat="1">
-      <c r="O1" s="85" t="s">
-        <v>3</v>
+      <c r="M1" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="78" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:54" ht="16" thickBot="1">
@@ -1609,8 +1626,8 @@
     </row>
     <row r="3" spans="2:54" ht="16" thickBot="1">
       <c r="B3" s="3"/>
-      <c r="O3" s="64" t="s">
-        <v>31</v>
+      <c r="O3" s="59" t="s">
+        <v>22</v>
       </c>
       <c r="U3" s="1"/>
       <c r="W3" s="13"/>
@@ -1619,16 +1636,22 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="AC3" s="87" t="s">
+        <v>53</v>
+      </c>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
+      <c r="AN3" s="87" t="s">
+        <v>52</v>
+      </c>
       <c r="AO3" s="3"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="16"/>
       <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
+      <c r="AS3" s="87" t="s">
+        <v>56</v>
+      </c>
       <c r="AT3" s="16"/>
       <c r="AU3" s="16"/>
       <c r="AW3" s="4"/>
@@ -1641,7 +1664,7 @@
     <row r="4" spans="2:54" ht="16" thickBot="1">
       <c r="B4" s="3"/>
       <c r="O4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1"/>
       <c r="W4" s="14"/>
@@ -1671,158 +1694,156 @@
     </row>
     <row r="5" spans="2:54">
       <c r="B5" s="3"/>
-      <c r="C5" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36" t="s">
+      <c r="C5" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="32"/>
       <c r="AQ5" s="26"/>
       <c r="AR5" s="26"/>
-      <c r="AS5" s="78" t="s">
-        <v>57</v>
+      <c r="AS5" s="84" t="s">
+        <v>44</v>
       </c>
       <c r="AT5" s="26"/>
       <c r="AU5" s="26"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="68" t="s">
-        <v>48</v>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="63" t="s">
+        <v>38</v>
       </c>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
     <row r="6" spans="2:54" ht="16" thickBot="1">
       <c r="B6" s="3"/>
-      <c r="C6" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT6" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU6" s="29"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="47" t="s">
+      <c r="C6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="81" t="s">
         <v>45</v>
+      </c>
+      <c r="AT6" s="79"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
     <row r="7" spans="2:54" ht="16" thickBot="1">
       <c r="B7" s="3"/>
-      <c r="C7" s="51" t="s">
-        <v>16</v>
+      <c r="C7" s="46" t="s">
+        <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1832,28 +1853,28 @@
       <c r="W7"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AM7" s="3"/>
-      <c r="AN7" s="51" t="s">
-        <v>16</v>
+      <c r="AN7" s="46" t="s">
+        <v>1</v>
       </c>
       <c r="AO7" s="3"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="16"/>
       <c r="AR7" s="16"/>
       <c r="AS7" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="16"/>
       <c r="AU7" s="16"/>
@@ -1861,7 +1882,7 @@
       <c r="AX7" s="4"/>
       <c r="AY7" s="4"/>
       <c r="AZ7" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
@@ -1869,54 +1890,54 @@
     <row r="8" spans="2:54">
       <c r="B8" s="3"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="63" t="s">
-        <v>30</v>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="50"/>
+      <c r="S8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="50"/>
+      <c r="U8" s="58" t="s">
+        <v>21</v>
       </c>
       <c r="V8" s="20"/>
       <c r="W8"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="68" t="s">
-        <v>36</v>
+      <c r="Y8" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="63" t="s">
+        <v>27</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
@@ -1924,16 +1945,16 @@
       <c r="AP8" s="7"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="25"/>
-      <c r="AS8" s="26" t="s">
-        <v>15</v>
+      <c r="AS8" s="85" t="s">
+        <v>46</v>
       </c>
       <c r="AT8" s="27"/>
       <c r="AU8" s="16"/>
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
-      <c r="AZ8" s="80" t="s">
-        <v>47</v>
+      <c r="AZ8" s="73" t="s">
+        <v>37</v>
       </c>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
@@ -1941,71 +1962,71 @@
     <row r="9" spans="2:54" ht="16" thickBot="1">
       <c r="B9" s="3"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="56" t="s">
-        <v>5</v>
+      <c r="G9" s="51" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="21" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R9" s="22"/>
       <c r="S9" s="21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="T9" s="22"/>
-      <c r="U9" s="57" t="s">
-        <v>29</v>
+      <c r="U9" s="52" t="s">
+        <v>20</v>
       </c>
       <c r="V9" s="20"/>
       <c r="W9"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="47" t="s">
-        <v>55</v>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="7"/>
       <c r="AQ9" s="16"/>
-      <c r="AR9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="30" t="s">
-        <v>12</v>
+      <c r="AR9" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="93" t="s">
+        <v>58</v>
       </c>
       <c r="AU9" s="16"/>
       <c r="AW9" s="4"/>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
-      <c r="AZ9" s="79" t="s">
-        <v>46</v>
+      <c r="AZ9" s="72" t="s">
+        <v>36</v>
       </c>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
@@ -2013,49 +2034,49 @@
     <row r="10" spans="2:54" ht="16" thickBot="1">
       <c r="B10" s="3"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="60"/>
-      <c r="U10" s="61" t="s">
-        <v>2</v>
+      <c r="G10" s="53"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="55"/>
+      <c r="U10" s="56" t="s">
+        <v>1</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="69" t="s">
-        <v>0</v>
+      <c r="Y10" s="64" t="s">
+        <v>1</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AG10" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
@@ -2063,20 +2084,20 @@
       <c r="AP10" s="7"/>
       <c r="AQ10" s="16"/>
       <c r="AR10" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="16"/>
       <c r="AW10" s="4"/>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="4"/>
       <c r="BB10" s="4"/>
@@ -2085,81 +2106,81 @@
       <c r="B11" s="3"/>
       <c r="E11" s="9"/>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="W11"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="74" t="s">
-        <v>35</v>
+      <c r="AA11" s="69" t="s">
+        <v>26</v>
       </c>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="68" t="s">
-        <v>42</v>
+      <c r="AC11" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="63" t="s">
+        <v>33</v>
       </c>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="7"/>
       <c r="AQ11" s="16"/>
-      <c r="AR11" s="31" t="s">
-        <v>13</v>
+      <c r="AR11" s="29" t="s">
+        <v>9</v>
       </c>
       <c r="AS11" s="17"/>
-      <c r="AT11" s="32" t="s">
-        <v>14</v>
+      <c r="AT11" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="AU11" s="19"/>
       <c r="AW11" s="4"/>
-      <c r="AX11" s="81" t="s">
-        <v>49</v>
+      <c r="AX11" s="74" t="s">
+        <v>39</v>
       </c>
       <c r="AY11" s="11"/>
-      <c r="AZ11" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA11" s="83" t="s">
-        <v>51</v>
+      <c r="AZ11" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA11" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="BB11" s="4"/>
     </row>
@@ -2170,22 +2191,22 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="70" t="s">
-        <v>16</v>
+      <c r="AA12" s="65" t="s">
+        <v>1</v>
       </c>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="47" t="s">
-        <v>56</v>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
@@ -2193,23 +2214,23 @@
       <c r="AP12" s="7"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="16"/>
       <c r="AT12" s="24" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="16"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA12" s="70" t="s">
-        <v>16</v>
+      <c r="AX12" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="65" t="s">
+        <v>1</v>
       </c>
       <c r="BB12" s="4"/>
     </row>
@@ -2222,21 +2243,21 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="70" t="s">
-        <v>16</v>
+      <c r="AC13" s="65" t="s">
+        <v>1</v>
       </c>
       <c r="AD13" s="4"/>
-      <c r="AE13" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG13" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI13" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK13" s="70" t="s">
-        <v>16</v>
+      <c r="AE13" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="65" t="s">
+        <v>1</v>
       </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
@@ -2244,7 +2265,7 @@
       <c r="AP13" s="7"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
@@ -2258,8 +2279,8 @@
     </row>
     <row r="14" spans="2:54" ht="28">
       <c r="B14" s="3"/>
-      <c r="O14" s="84" t="s">
-        <v>52</v>
+      <c r="O14" s="77" t="s">
+        <v>1</v>
       </c>
       <c r="U14" s="1"/>
       <c r="W14" s="7"/>
@@ -2268,12 +2289,12 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="70"/>
+      <c r="AC14" s="65"/>
       <c r="AD14" s="4"/>
-      <c r="AE14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AK14" s="70"/>
+      <c r="AE14" s="65"/>
+      <c r="AG14" s="65"/>
+      <c r="AI14" s="65"/>
+      <c r="AK14" s="65"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
@@ -2320,29 +2341,29 @@
     </row>
     <row r="16" spans="2:54">
       <c r="B16" s="3"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
       <c r="W16"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -2370,29 +2391,29 @@
     </row>
     <row r="17" spans="2:54" ht="16" thickBot="1">
       <c r="B17" s="3"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
       <c r="W17"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -2420,11 +2441,9 @@
     </row>
     <row r="18" spans="2:54">
       <c r="B18" s="3"/>
-      <c r="O18" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="O18" s="23"/>
       <c r="Q18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
